--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP2201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP2201819.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-19 Statutory Scenarios\201819 Statutory Input sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B6C611F6-3FE8-44B4-9041-A998D5886955}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{C934B6EC-D726-494D-B2B5-B0DD395ECFCE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="10" firstSheet="8" windowHeight="7530" windowWidth="20490" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="2" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="13" r:id="rId2"/>
-    <sheet name="CreateMaleEmployee" sheetId="14" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="15" r:id="rId4"/>
-    <sheet name="ProcessPayrolFor20FourWeeklySSP" sheetId="1" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor24FourWeeklySSP" sheetId="3" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor28FourWeeklySSP" sheetId="4" r:id="rId7"/>
-    <sheet name="CreateLeaveRequest" sheetId="9" r:id="rId8"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="19" r:id="rId9"/>
-    <sheet name="ProcessPayrolFor32FourWeeklySSP" sheetId="6" r:id="rId10"/>
+    <sheet name="first" r:id="rId1" sheetId="2"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="13"/>
+    <sheet name="CreateMaleEmployee" r:id="rId3" sheetId="14"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="15"/>
+    <sheet name="ProcessPayrolFor20FourWeeklySSP" r:id="rId5" sheetId="1"/>
+    <sheet name="ProcessPayrolFor24FourWeeklySSP" r:id="rId6" sheetId="3"/>
+    <sheet name="ProcessPayrolFor28FourWeeklySSP" r:id="rId7" sheetId="4"/>
+    <sheet name="CreateLeaveRequest" r:id="rId8" sheetId="9"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId9" sheetId="20"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="19"/>
+    <sheet name="ProcessPayrolFor32FourWeeklySSP" r:id="rId11" sheetId="6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="181">
   <si>
     <t>EmpName</t>
   </si>
@@ -451,9 +452,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>WeekName</t>
   </si>
   <si>
@@ -466,12 +464,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH SSP Payment</t>
-  </si>
-  <si>
     <t>Four Week-32</t>
   </si>
   <si>
@@ -499,12 +491,6 @@
     <t>This script executes the query to accumulated ytd in payroll</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH SSP AVERAGE WEEKLY EARNINGS</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -559,13 +545,41 @@
     <t>DIRSSPCaseTwo_Payroll</t>
   </si>
   <si>
-    <t>8</t>
+    <t>ConditionSatisfied</t>
+  </si>
+  <si>
+    <t>UpdateLeaveRecord</t>
+  </si>
+  <si>
+    <t>update the Sick leave request</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH SSPCaseTwo AWE</t>
+  </si>
+  <si>
+    <t>10/25/2018</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH SSPCASETWO PAYMENT REPORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,64 +657,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -717,10 +731,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -755,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +821,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,7 +926,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -921,13 +935,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -937,7 +951,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -946,7 +960,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -955,7 +969,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -965,12 +979,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1001,7 +1015,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1020,7 +1034,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1032,20 +1046,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,12 +1076,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1076,12 +1090,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="22.9" r="3" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1090,23 +1104,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="5" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1115,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.9" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,12 +1227,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -1227,9 +1241,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1237,13 +1251,13 @@
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -1251,40 +1265,54 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
+    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -1298,7 +1326,7 @@
         <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>132</v>
@@ -1328,39 +1356,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>146</v>
+        <v>159</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>137</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>4</v>
@@ -1368,15 +1396,129 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="67.5" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1385,13 +1527,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1414,30 +1556,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1446,17 +1588,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1647,12 +1789,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>90</v>
@@ -1834,15 +1976,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="D2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1851,16 +1993,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1886,9 +2028,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>127</v>
@@ -1907,33 +2049,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -1947,7 +2089,7 @@
         <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>132</v>
@@ -1977,30 +2119,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>139</v>
@@ -2009,7 +2151,7 @@
         <v>137</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>4</v>
@@ -2017,150 +2159,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -2174,7 +2202,7 @@
         <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>132</v>
@@ -2204,39 +2232,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>137</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>4</v>
@@ -2244,37 +2272,147 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2294,45 +2432,33 @@
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="2" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>27</v>
@@ -2340,138 +2466,132 @@
       <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A100B324-C7C4-42B4-8141-09791B82CF98}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>174</v>
+    <row customFormat="1" customHeight="1" ht="20.25" r="2" s="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="20" t="s">
         <v>157</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="15" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>4</v>
       </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP2201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP2201819.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
   <si>
     <t>EmpName</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP2201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP2201819.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="181">
   <si>
     <t>EmpName</t>
   </si>
